--- a/medicine/Enfance/Georges_Jean/Georges_Jean.xlsx
+++ b/medicine/Enfance/Georges_Jean/Georges_Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Jean, né le 16 septembre 1920 à Besançon (Franche-Comté) et mort le 19 décembre 2011 à l'âge de 91 ans, est un poète et essayiste français spécialisé dans le domaine de l'enfance[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Jean, né le 16 septembre 1920 à Besançon (Franche-Comté) et mort le 19 décembre 2011 à l'âge de 91 ans, est un poète et essayiste français spécialisé dans le domaine de l'enfance,. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir étudié la philosophie, il entre à l'École Normale Supérieure de Saint-Cloud, puis se consacre à l'enseignement dans la ville du Mans et à l'Université française du Maine dans les domaines de la linguistique, de la poétique et de la sémiologie,. 
 Il fut dirigeant du Centre international poésie-enfance, participa à la commission ministérielle d'aide à la création théâtrale, fut enseignant à l'École Nationale Supérieure des Bibliothèques, tout en publiant plus de 70 ouvrages dont des poèmes, essais et théories sur la poésie et la pédagogie.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-A mots couverts, Chambelland, 1995
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A mots couverts, Chambelland, 1995
 A mots brefs, La Bruyère, 1999
 A mots magiques, Corps Puce, 1994
 Écrits sur la page, Gallimard, 1978
@@ -555,11 +574,79 @@
 Parcours immobiles, Le Dé bleu, 1995
 A voix basse, 1997
 Les mots du jour, Donner à Voir, 2000
-Des mots pour elle, Le Cherche Midi, 2010
-Anthologies
-Nouveaux trésors de la poésie pour enfants : Anthologie, Le Cherche Midi, 2003, Le Livre de poche, 2005.
-Essais
-Lecture de la poésie, St Germain-des-Prés, 1980.
+Des mots pour elle, Le Cherche Midi, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Jean</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Jean</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nouveaux trésors de la poésie pour enfants : Anthologie, Le Cherche Midi, 2003, Le Livre de poche, 2005.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges_Jean</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Jean</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lecture de la poésie, St Germain-des-Prés, 1980.
 Le plaisir des mots : dictionnaire poétique illustré, Gallimard, 1982.
 Le livre de tous les pays, Gallimard, 1984.
 A l’école de la poésie, Retz, 1989.
